--- a/Datasets/10304_afv_models_oem.xlsx
+++ b/Datasets/10304_afv_models_oem.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hpawlows/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jae/Desktop/Team9/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9337D63C-AF5F-AF41-8608-719075C93C95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92461F43-BCE1-7945-9F21-2DC1F593560F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="2100" windowWidth="31060" windowHeight="24420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFV Models by OEMs" sheetId="5" r:id="rId1"/>
     <sheet name="Condensed" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="64">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -212,9 +212,6 @@
   </si>
   <si>
     <t>Last updated 11/26/18</t>
-  </si>
-  <si>
-    <t>Number of AFV/HEV Models Offered by OEMs in MY1991-2018</t>
   </si>
   <si>
     <r>
@@ -675,7 +672,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9"/>
@@ -750,15 +747,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="9" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -863,7 +851,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$4</c:f>
+              <c:f>'AFV Models by OEMs'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -875,7 +863,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -968,7 +956,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$4:$AD$4</c:f>
+              <c:f>'AFV Models by OEMs'!$B$2:$AC$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1001,7 +989,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$5</c:f>
+              <c:f>'AFV Models by OEMs'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1013,7 +1001,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1106,7 +1094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$5:$AD$5</c:f>
+              <c:f>'AFV Models by OEMs'!$B$3:$AC$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1142,7 +1130,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$6</c:f>
+              <c:f>'AFV Models by OEMs'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1154,7 +1142,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1247,7 +1235,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$6:$AD$6</c:f>
+              <c:f>'AFV Models by OEMs'!$B$4:$AC$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1283,7 +1271,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$7</c:f>
+              <c:f>'AFV Models by OEMs'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1295,7 +1283,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1388,7 +1376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$7:$AD$7</c:f>
+              <c:f>'AFV Models by OEMs'!$B$5:$AC$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1433,7 +1421,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$8</c:f>
+              <c:f>'AFV Models by OEMs'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1445,7 +1433,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1538,7 +1526,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$8:$AD$8</c:f>
+              <c:f>'AFV Models by OEMs'!$B$6:$AC$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1586,7 +1574,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$10</c:f>
+              <c:f>'AFV Models by OEMs'!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1598,7 +1586,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1691,7 +1679,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$10:$AD$10</c:f>
+              <c:f>'AFV Models by OEMs'!$B$8:$AC$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1739,7 +1727,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$11</c:f>
+              <c:f>'AFV Models by OEMs'!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1751,7 +1739,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1844,7 +1832,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$11:$AD$11</c:f>
+              <c:f>'AFV Models by OEMs'!$B$9:$AC$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1937,7 +1925,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$12</c:f>
+              <c:f>'AFV Models by OEMs'!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1949,7 +1937,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2042,7 +2030,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$12:$AD$12</c:f>
+              <c:f>'AFV Models by OEMs'!$B$10:$AC$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2120,7 +2108,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$13</c:f>
+              <c:f>'AFV Models by OEMs'!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2132,7 +2120,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2225,7 +2213,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$13:$AD$13</c:f>
+              <c:f>'AFV Models by OEMs'!$B$11:$AC$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2249,7 +2237,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$14</c:f>
+              <c:f>'AFV Models by OEMs'!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2261,7 +2249,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2354,7 +2342,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$14:$AD$14</c:f>
+              <c:f>'AFV Models by OEMs'!$B$12:$AC$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2450,7 +2438,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$16</c:f>
+              <c:f>'AFV Models by OEMs'!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2462,7 +2450,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2555,7 +2543,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$16:$AD$16</c:f>
+              <c:f>'AFV Models by OEMs'!$B$14:$AC$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2588,7 +2576,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$17</c:f>
+              <c:f>'AFV Models by OEMs'!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2600,7 +2588,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2693,7 +2681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$17:$AD$17</c:f>
+              <c:f>'AFV Models by OEMs'!$B$15:$AC$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2714,7 +2702,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$18</c:f>
+              <c:f>'AFV Models by OEMs'!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2726,7 +2714,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2819,7 +2807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$18:$AD$18</c:f>
+              <c:f>'AFV Models by OEMs'!$B$16:$AC$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -2921,7 +2909,7 @@
           <c:order val="13"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$19</c:f>
+              <c:f>'AFV Models by OEMs'!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2933,7 +2921,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3026,7 +3014,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$19:$AD$19</c:f>
+              <c:f>'AFV Models by OEMs'!$B$17:$AC$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3059,7 +3047,7 @@
           <c:order val="14"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$20</c:f>
+              <c:f>'AFV Models by OEMs'!$A$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3071,7 +3059,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3164,7 +3152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$20:$AD$20</c:f>
+              <c:f>'AFV Models by OEMs'!$B$18:$AC$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3248,7 +3236,7 @@
           <c:order val="15"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$21</c:f>
+              <c:f>'AFV Models by OEMs'!$A$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3260,7 +3248,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3353,7 +3341,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$21:$AD$21</c:f>
+              <c:f>'AFV Models by OEMs'!$B$19:$AC$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3434,7 +3422,7 @@
           <c:order val="16"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$22</c:f>
+              <c:f>'AFV Models by OEMs'!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3446,7 +3434,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3539,7 +3527,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$22:$AD$22</c:f>
+              <c:f>'AFV Models by OEMs'!$B$20:$AC$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3560,7 +3548,7 @@
           <c:order val="17"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$23</c:f>
+              <c:f>'AFV Models by OEMs'!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3572,7 +3560,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3665,7 +3653,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$23:$AD$23</c:f>
+              <c:f>'AFV Models by OEMs'!$B$21:$AC$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3707,7 +3695,7 @@
           <c:order val="18"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$24</c:f>
+              <c:f>'AFV Models by OEMs'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3719,7 +3707,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3812,7 +3800,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$24:$AD$24</c:f>
+              <c:f>'AFV Models by OEMs'!$B$22:$AC$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3851,7 +3839,7 @@
           <c:order val="19"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$26</c:f>
+              <c:f>'AFV Models by OEMs'!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3863,7 +3851,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -3956,7 +3944,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$26:$AD$26</c:f>
+              <c:f>'AFV Models by OEMs'!$B$24:$AC$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4007,7 +3995,7 @@
           <c:order val="20"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$28</c:f>
+              <c:f>'AFV Models by OEMs'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4019,7 +4007,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4112,7 +4100,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$28:$AD$28</c:f>
+              <c:f>'AFV Models by OEMs'!$B$26:$AC$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4151,7 +4139,7 @@
           <c:order val="21"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$30</c:f>
+              <c:f>'AFV Models by OEMs'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4163,7 +4151,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4256,7 +4244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$30:$AD$30</c:f>
+              <c:f>'AFV Models by OEMs'!$B$28:$AC$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4304,7 +4292,7 @@
           <c:order val="22"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$31</c:f>
+              <c:f>'AFV Models by OEMs'!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4316,7 +4304,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4409,7 +4397,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$31:$AD$31</c:f>
+              <c:f>'AFV Models by OEMs'!$B$29:$AC$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4466,7 +4454,7 @@
           <c:order val="23"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$32</c:f>
+              <c:f>'AFV Models by OEMs'!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4478,7 +4466,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4571,7 +4559,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$32:$AD$32</c:f>
+              <c:f>'AFV Models by OEMs'!$B$30:$AC$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4619,7 +4607,7 @@
           <c:order val="24"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$34</c:f>
+              <c:f>'AFV Models by OEMs'!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4631,7 +4619,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4724,7 +4712,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$34:$AD$34</c:f>
+              <c:f>'AFV Models by OEMs'!$B$32:$AC$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4787,7 +4775,7 @@
           <c:order val="25"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$35</c:f>
+              <c:f>'AFV Models by OEMs'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4799,7 +4787,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4892,7 +4880,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$35:$AD$35</c:f>
+              <c:f>'AFV Models by OEMs'!$B$33:$AC$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -4937,7 +4925,7 @@
           <c:order val="26"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$37</c:f>
+              <c:f>'AFV Models by OEMs'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4949,7 +4937,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5042,7 +5030,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$37:$AD$37</c:f>
+              <c:f>'AFV Models by OEMs'!$B$35:$AC$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5084,7 +5072,7 @@
           <c:order val="27"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$38</c:f>
+              <c:f>'AFV Models by OEMs'!$A$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5096,7 +5084,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5189,7 +5177,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$38:$AD$38</c:f>
+              <c:f>'AFV Models by OEMs'!$B$36:$AC$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5264,7 +5252,7 @@
           <c:order val="28"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$39</c:f>
+              <c:f>'AFV Models by OEMs'!$A$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5276,7 +5264,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5369,7 +5357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$39:$AD$39</c:f>
+              <c:f>'AFV Models by OEMs'!$B$37:$AC$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5399,7 +5387,7 @@
           <c:order val="29"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$40</c:f>
+              <c:f>'AFV Models by OEMs'!$A$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5411,7 +5399,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5504,7 +5492,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$40:$AD$40</c:f>
+              <c:f>'AFV Models by OEMs'!$B$38:$AC$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5543,7 +5531,7 @@
           <c:order val="30"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$41</c:f>
+              <c:f>'AFV Models by OEMs'!$A$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5555,7 +5543,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5648,7 +5636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$41:$AD$41</c:f>
+              <c:f>'AFV Models by OEMs'!$B$39:$AC$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5672,7 +5660,7 @@
           <c:order val="31"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$43</c:f>
+              <c:f>'AFV Models by OEMs'!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5684,7 +5672,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5777,7 +5765,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$43:$AD$43</c:f>
+              <c:f>'AFV Models by OEMs'!$B$41:$AC$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5798,7 +5786,7 @@
           <c:order val="32"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$44</c:f>
+              <c:f>'AFV Models by OEMs'!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5810,7 +5798,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5903,7 +5891,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$44:$AD$44</c:f>
+              <c:f>'AFV Models by OEMs'!$B$42:$AC$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -5930,7 +5918,7 @@
           <c:order val="33"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$45</c:f>
+              <c:f>'AFV Models by OEMs'!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5942,7 +5930,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6035,7 +6023,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$45:$AD$45</c:f>
+              <c:f>'AFV Models by OEMs'!$B$43:$AC$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6059,7 +6047,7 @@
           <c:order val="34"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$46</c:f>
+              <c:f>'AFV Models by OEMs'!$A$44</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6071,7 +6059,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6164,7 +6152,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$46:$AD$46</c:f>
+              <c:f>'AFV Models by OEMs'!$B$44:$AC$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6200,7 +6188,7 @@
           <c:order val="35"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$47</c:f>
+              <c:f>'AFV Models by OEMs'!$A$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6212,7 +6200,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6305,7 +6293,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$47:$AD$47</c:f>
+              <c:f>'AFV Models by OEMs'!$B$45:$AC$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6341,7 +6329,7 @@
           <c:order val="36"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$49</c:f>
+              <c:f>'AFV Models by OEMs'!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6353,7 +6341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6446,7 +6434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$49:$AD$49</c:f>
+              <c:f>'AFV Models by OEMs'!$B$47:$AC$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6494,7 +6482,7 @@
           <c:order val="37"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$50</c:f>
+              <c:f>'AFV Models by OEMs'!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6506,7 +6494,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6599,7 +6587,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$50:$AD$50</c:f>
+              <c:f>'AFV Models by OEMs'!$B$48:$AC$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6677,7 +6665,7 @@
           <c:order val="38"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$51</c:f>
+              <c:f>'AFV Models by OEMs'!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6689,7 +6677,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6782,7 +6770,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$51:$AD$51</c:f>
+              <c:f>'AFV Models by OEMs'!$B$49:$AC$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6809,7 +6797,7 @@
           <c:order val="39"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$52</c:f>
+              <c:f>'AFV Models by OEMs'!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6821,7 +6809,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6914,7 +6902,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$52:$AD$52</c:f>
+              <c:f>'AFV Models by OEMs'!$B$50:$AC$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -6950,7 +6938,7 @@
           <c:order val="40"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$54</c:f>
+              <c:f>'AFV Models by OEMs'!$A$52</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6962,7 +6950,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7055,7 +7043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$54:$AD$54</c:f>
+              <c:f>'AFV Models by OEMs'!$B$52:$AC$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7076,7 +7064,7 @@
           <c:order val="41"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$29</c:f>
+              <c:f>'AFV Models by OEMs'!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7088,7 +7076,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7181,7 +7169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$29:$AD$29</c:f>
+              <c:f>'AFV Models by OEMs'!$B$27:$AC$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7211,7 +7199,7 @@
           <c:order val="42"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$42</c:f>
+              <c:f>'AFV Models by OEMs'!$A$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7223,7 +7211,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7316,7 +7304,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$42:$AD$42</c:f>
+              <c:f>'AFV Models by OEMs'!$B$40:$AC$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7355,7 +7343,7 @@
           <c:order val="43"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$48</c:f>
+              <c:f>'AFV Models by OEMs'!$A$46</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7367,7 +7355,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$3:$AD$3</c:f>
+              <c:f>'AFV Models by OEMs'!$B$1:$AC$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7460,7 +7448,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$48:$AD$48</c:f>
+              <c:f>'AFV Models by OEMs'!$B$46:$AC$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7487,7 +7475,7 @@
           <c:order val="44"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$25</c:f>
+              <c:f>'AFV Models by OEMs'!$A$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7499,7 +7487,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$25:$AD$25</c:f>
+              <c:f>'AFV Models by OEMs'!$B$23:$AC$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7532,7 +7520,7 @@
           <c:order val="45"/>
           <c:tx>
             <c:strRef>
-              <c:f>'AFV Models by OEMs'!$B$33</c:f>
+              <c:f>'AFV Models by OEMs'!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7544,7 +7532,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'AFV Models by OEMs'!$C$33:$AD$33</c:f>
+              <c:f>'AFV Models by OEMs'!$B$31:$AC$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -7690,13 +7678,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>23494</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>45719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8124,10 +8112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AE102"/>
+  <dimension ref="A1:AE101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8142,137 +8130,199 @@
     <col min="31" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:31" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
-      <c r="V2" s="55"/>
-      <c r="W2" s="55"/>
-      <c r="X2" s="55"/>
-      <c r="Y2" s="55"/>
-      <c r="Z2" s="55"/>
-      <c r="AA2" s="55"/>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="55"/>
-      <c r="AD2" s="55"/>
-      <c r="AE2" s="56"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9">
+        <v>1991</v>
+      </c>
+      <c r="C1" s="9">
+        <v>1992</v>
+      </c>
+      <c r="D1" s="9">
+        <v>1993</v>
+      </c>
+      <c r="E1" s="9">
+        <v>1994</v>
+      </c>
+      <c r="F1" s="9">
+        <v>1995</v>
+      </c>
+      <c r="G1" s="9">
+        <v>1996</v>
+      </c>
+      <c r="H1" s="9">
+        <v>1997</v>
+      </c>
+      <c r="I1" s="9">
+        <v>1998</v>
+      </c>
+      <c r="J1" s="9">
+        <v>1999</v>
+      </c>
+      <c r="K1" s="9">
+        <v>2000</v>
+      </c>
+      <c r="L1" s="9">
+        <v>2001</v>
+      </c>
+      <c r="M1" s="9">
+        <v>2002</v>
+      </c>
+      <c r="N1" s="9">
+        <v>2003</v>
+      </c>
+      <c r="O1" s="9">
+        <v>2004</v>
+      </c>
+      <c r="P1" s="9">
+        <v>2005</v>
+      </c>
+      <c r="Q1" s="9">
+        <v>2006</v>
+      </c>
+      <c r="R1" s="9">
+        <v>2007</v>
+      </c>
+      <c r="S1" s="9">
+        <v>2008</v>
+      </c>
+      <c r="T1" s="9">
+        <v>2009</v>
+      </c>
+      <c r="U1" s="9">
+        <v>2010</v>
+      </c>
+      <c r="V1" s="9">
+        <v>2011</v>
+      </c>
+      <c r="W1" s="9">
+        <v>2012</v>
+      </c>
+      <c r="X1" s="9">
+        <v>2013</v>
+      </c>
+      <c r="Y1" s="9">
+        <v>2014</v>
+      </c>
+      <c r="Z1" s="11">
+        <v>2015</v>
+      </c>
+      <c r="AA1" s="11">
+        <v>2016</v>
+      </c>
+      <c r="AB1" s="11">
+        <v>2017</v>
+      </c>
+      <c r="AC1" s="11">
+        <v>2018</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1991</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1992</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1993</v>
-      </c>
-      <c r="F3" s="9">
-        <v>1994</v>
-      </c>
-      <c r="G3" s="9">
-        <v>1995</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1996</v>
-      </c>
-      <c r="I3" s="9">
-        <v>1997</v>
-      </c>
-      <c r="J3" s="9">
-        <v>1998</v>
-      </c>
-      <c r="K3" s="9">
-        <v>1999</v>
-      </c>
-      <c r="L3" s="9">
-        <v>2000</v>
-      </c>
-      <c r="M3" s="9">
-        <v>2001</v>
-      </c>
-      <c r="N3" s="9">
-        <v>2002</v>
-      </c>
-      <c r="O3" s="9">
-        <v>2003</v>
-      </c>
-      <c r="P3" s="9">
-        <v>2004</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>2005</v>
-      </c>
-      <c r="R3" s="9">
-        <v>2006</v>
-      </c>
-      <c r="S3" s="9">
-        <v>2007</v>
-      </c>
-      <c r="T3" s="9">
-        <v>2008</v>
-      </c>
-      <c r="U3" s="9">
-        <v>2009</v>
-      </c>
-      <c r="V3" s="9">
-        <v>2010</v>
-      </c>
-      <c r="W3" s="9">
-        <v>2011</v>
-      </c>
-      <c r="X3" s="9">
-        <v>2012</v>
-      </c>
-      <c r="Y3" s="9">
-        <v>2013</v>
-      </c>
-      <c r="Z3" s="9">
-        <v>2014</v>
-      </c>
-      <c r="AA3" s="11">
-        <v>2015</v>
-      </c>
-      <c r="AB3" s="11">
-        <v>2016</v>
-      </c>
-      <c r="AC3" s="11">
-        <v>2017</v>
-      </c>
-      <c r="AD3" s="11">
-        <v>2018</v>
-      </c>
-      <c r="AE3" s="13" t="s">
-        <v>1</v>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="12">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="14">
+        <f>SUM(B2:AC2)</f>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B4" s="7" t="s">
-        <v>19</v>
-      </c>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="12">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="12">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>4</v>
+      </c>
+      <c r="AC3" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="14">
+        <f t="shared" ref="AD3:AD52" si="0">SUM(B3:AC3)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8292,34 +8342,36 @@
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
+      <c r="V4" s="6">
+        <v>3</v>
+      </c>
+      <c r="W4" s="6">
+        <v>3</v>
+      </c>
+      <c r="X4" s="6">
+        <v>4</v>
+      </c>
       <c r="Y4" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="12">
+        <v>4</v>
+      </c>
+      <c r="Z4" s="12">
         <v>3</v>
       </c>
-      <c r="AD4" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE4" s="14">
-        <f>SUM(C4:AD4)</f>
-        <v>10</v>
+      <c r="AA4" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="14">
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -8338,37 +8390,43 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="6">
+        <v>3</v>
+      </c>
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="6">
+        <v>3</v>
+      </c>
       <c r="Y5" s="6">
         <v>6</v>
       </c>
-      <c r="Z5" s="6">
+      <c r="Z5" s="12">
         <v>6</v>
       </c>
       <c r="AA5" s="12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AB5" s="12">
         <v>7</v>
       </c>
       <c r="AC5" s="12">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="14">
-        <f t="shared" ref="AE5:AE54" si="0">SUM(C5:AD5)</f>
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="AD5" s="14">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B6" s="7" t="s">
-        <v>21</v>
-      </c>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -8384,40 +8442,48 @@
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
+      <c r="T6" s="6">
+        <v>1</v>
+      </c>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="6">
+        <v>3</v>
+      </c>
       <c r="W6" s="6">
+        <v>4</v>
+      </c>
+      <c r="X6" s="6">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="12">
         <v>3</v>
       </c>
-      <c r="X6" s="6">
-        <v>3</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="6">
-        <v>4</v>
-      </c>
       <c r="AA6" s="12">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="14">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B7" s="7" t="s">
-        <v>12</v>
-      </c>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -8437,42 +8503,26 @@
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
-      <c r="V7" s="6">
-        <v>1</v>
-      </c>
-      <c r="W7" s="6">
-        <v>3</v>
-      </c>
-      <c r="X7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="6">
-        <v>6</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>6</v>
-      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
       <c r="AB7" s="12">
-        <v>5</v>
-      </c>
-      <c r="AC7" s="12">
-        <v>7</v>
-      </c>
-      <c r="AD7" s="12">
-        <v>9</v>
-      </c>
-      <c r="AE7" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="14">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B8" s="7" t="s">
-        <v>22</v>
-      </c>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -8489,86 +8539,134 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="6">
-        <v>1</v>
-      </c>
-      <c r="T8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6">
+        <v>2</v>
+      </c>
       <c r="U8" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V8" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W8" s="6">
+        <v>4</v>
+      </c>
+      <c r="X8" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="14">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="X8" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y8" s="6">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="12">
-        <v>3</v>
-      </c>
-      <c r="AB8" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="14">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B9" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>4</v>
+      </c>
+      <c r="J9" s="6">
+        <v>4</v>
+      </c>
+      <c r="K9" s="6">
+        <v>6</v>
+      </c>
+      <c r="L9" s="6">
+        <v>5</v>
+      </c>
+      <c r="M9" s="6">
+        <v>7</v>
+      </c>
+      <c r="N9" s="6">
+        <v>7</v>
+      </c>
+      <c r="O9" s="6">
+        <v>8</v>
+      </c>
+      <c r="P9" s="6">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>8</v>
+      </c>
+      <c r="R9" s="6">
+        <v>9</v>
+      </c>
+      <c r="S9" s="6">
+        <v>11</v>
+      </c>
+      <c r="T9" s="6">
+        <v>10</v>
+      </c>
+      <c r="U9" s="6">
+        <v>11</v>
+      </c>
+      <c r="V9" s="6">
+        <v>14</v>
+      </c>
+      <c r="W9" s="6">
+        <v>20</v>
+      </c>
+      <c r="X9" s="6">
+        <v>26</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>24</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>30</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>24</v>
+      </c>
       <c r="AC9" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="14">
+        <v>31</v>
+      </c>
+      <c r="AD9" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>300</v>
       </c>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B10" s="7" t="s">
-        <v>23</v>
-      </c>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -8576,220 +8674,206 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
+      <c r="J10" s="6">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10" s="6">
+        <v>3</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2</v>
+      </c>
+      <c r="N10" s="6">
+        <v>4</v>
+      </c>
+      <c r="O10" s="6">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6">
+        <v>3</v>
+      </c>
+      <c r="S10" s="6">
+        <v>3</v>
+      </c>
+      <c r="T10" s="6">
+        <v>4</v>
+      </c>
       <c r="U10" s="6">
         <v>2</v>
       </c>
       <c r="V10" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W10" s="6">
+        <v>3</v>
+      </c>
+      <c r="X10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="12">
         <v>4</v>
       </c>
-      <c r="X10" s="6">
-        <v>4</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="6">
-        <v>4</v>
-      </c>
-      <c r="AA10" s="12">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="12">
-        <v>1</v>
-      </c>
       <c r="AC10" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="14">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>2</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6">
+        <v>1</v>
+      </c>
+      <c r="X11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" s="6">
+        <v>5</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6">
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
         <v>4</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K12" s="6">
         <v>4</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L12" s="6">
         <v>6</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M12" s="6">
+        <v>6</v>
+      </c>
+      <c r="N12" s="6">
+        <v>6</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="6">
         <v>5</v>
       </c>
-      <c r="N11" s="6">
-        <v>7</v>
-      </c>
-      <c r="O11" s="6">
-        <v>7</v>
-      </c>
-      <c r="P11" s="6">
-        <v>8</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>7</v>
-      </c>
-      <c r="R11" s="6">
-        <v>8</v>
-      </c>
-      <c r="S11" s="6">
-        <v>9</v>
-      </c>
-      <c r="T11" s="6">
-        <v>11</v>
-      </c>
-      <c r="U11" s="6">
-        <v>10</v>
-      </c>
-      <c r="V11" s="6">
-        <v>11</v>
-      </c>
-      <c r="W11" s="6">
-        <v>14</v>
-      </c>
-      <c r="X11" s="6">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>26</v>
-      </c>
-      <c r="Z11" s="6">
-        <v>24</v>
-      </c>
-      <c r="AA11" s="12">
-        <v>30</v>
-      </c>
-      <c r="AB11" s="12">
-        <v>27</v>
-      </c>
-      <c r="AC11" s="12">
-        <v>24</v>
-      </c>
-      <c r="AD11" s="12">
-        <v>31</v>
-      </c>
-      <c r="AE11" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B12" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6">
-        <v>2</v>
-      </c>
-      <c r="L12" s="6">
-        <v>2</v>
-      </c>
-      <c r="M12" s="6">
-        <v>3</v>
-      </c>
-      <c r="N12" s="6">
-        <v>2</v>
-      </c>
-      <c r="O12" s="6">
-        <v>4</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
       <c r="R12" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T12" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U12" s="6">
         <v>4</v>
       </c>
       <c r="V12" s="6">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W12" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="X12" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Y12" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z12" s="6">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>6</v>
       </c>
       <c r="AA12" s="12">
         <v>5</v>
       </c>
       <c r="AB12" s="12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AC12" s="12">
         <v>4</v>
       </c>
-      <c r="AD12" s="12">
-        <v>3</v>
-      </c>
-      <c r="AE12" s="14">
+      <c r="AD12" s="14">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B13" s="7" t="s">
-        <v>25</v>
-      </c>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -8811,115 +8895,71 @@
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
-      <c r="X13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
+      <c r="AB13" s="12">
+        <v>1</v>
+      </c>
       <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="14">
+      <c r="AD13" s="14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>3</v>
-      </c>
-      <c r="G14" s="6">
-        <v>7</v>
-      </c>
-      <c r="H14" s="6">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="14">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <v>4</v>
-      </c>
-      <c r="L14" s="6">
-        <v>4</v>
-      </c>
-      <c r="M14" s="6">
-        <v>6</v>
-      </c>
-      <c r="N14" s="6">
-        <v>6</v>
-      </c>
-      <c r="O14" s="6">
-        <v>6</v>
-      </c>
-      <c r="P14" s="6">
-        <v>2</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>4</v>
-      </c>
-      <c r="R14" s="6">
-        <v>5</v>
-      </c>
-      <c r="S14" s="6">
-        <v>5</v>
-      </c>
-      <c r="T14" s="6">
-        <v>5</v>
-      </c>
-      <c r="U14" s="6">
-        <v>6</v>
-      </c>
-      <c r="V14" s="6">
-        <v>4</v>
-      </c>
-      <c r="W14" s="6">
-        <v>9</v>
-      </c>
-      <c r="X14" s="6">
-        <v>7</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="6">
-        <v>7</v>
-      </c>
-      <c r="AA14" s="12">
-        <v>6</v>
-      </c>
-      <c r="AB14" s="12">
-        <v>5</v>
-      </c>
-      <c r="AC14" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD14" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE14" s="14">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
     </row>
-    <row r="15" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B15" s="7" t="s">
-        <v>58</v>
-      </c>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -8940,82 +8980,138 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="W15" s="6">
+        <v>1</v>
+      </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="Z15" s="12"/>
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
-      <c r="AC15" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="14">
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="14">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6">
+        <v>6</v>
+      </c>
+      <c r="H16" s="6">
+        <v>14</v>
+      </c>
+      <c r="I16" s="6">
+        <v>13</v>
+      </c>
+      <c r="J16" s="6">
+        <v>19</v>
+      </c>
+      <c r="K16" s="6">
+        <v>12</v>
+      </c>
+      <c r="L16" s="6">
+        <v>11</v>
+      </c>
+      <c r="M16" s="6">
+        <v>13</v>
+      </c>
+      <c r="N16" s="6">
+        <v>11</v>
+      </c>
+      <c r="O16" s="6">
+        <v>11</v>
+      </c>
+      <c r="P16" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>6</v>
+      </c>
+      <c r="R16" s="6">
+        <v>4</v>
+      </c>
+      <c r="S16" s="6">
+        <v>6</v>
+      </c>
+      <c r="T16" s="6">
+        <v>6</v>
+      </c>
+      <c r="U16" s="6">
+        <v>7</v>
+      </c>
+      <c r="V16" s="6">
+        <v>15</v>
+      </c>
+      <c r="W16" s="6">
+        <v>20</v>
+      </c>
+      <c r="X16" s="6">
+        <v>26</v>
+      </c>
       <c r="Y16" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="6">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="Z16" s="12">
+        <v>38</v>
       </c>
       <c r="AA16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="AB16" s="12">
+        <v>22</v>
+      </c>
       <c r="AC16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="12">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="14">
+        <v>32</v>
+      </c>
+      <c r="AD16" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>381</v>
       </c>
     </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B17" s="7" t="s">
-        <v>28</v>
-      </c>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>2</v>
+      </c>
+      <c r="J17" s="6">
+        <v>2</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2</v>
+      </c>
+      <c r="L17" s="6">
+        <v>2</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -9027,117 +9123,103 @@
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
-      <c r="X17" s="6">
-        <v>1</v>
-      </c>
+      <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="12"/>
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
       <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="14">
+      <c r="AD17" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>2</v>
-      </c>
-      <c r="F18" s="6">
-        <v>2</v>
-      </c>
-      <c r="G18" s="6">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>3</v>
+      </c>
+      <c r="L18" s="6">
         <v>5</v>
       </c>
-      <c r="H18" s="6">
+      <c r="M18" s="6">
         <v>6</v>
       </c>
-      <c r="I18" s="6">
-        <v>14</v>
-      </c>
-      <c r="J18" s="6">
-        <v>13</v>
-      </c>
-      <c r="K18" s="6">
-        <v>19</v>
-      </c>
-      <c r="L18" s="6">
-        <v>12</v>
-      </c>
-      <c r="M18" s="6">
-        <v>11</v>
-      </c>
       <c r="N18" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O18" s="6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="P18" s="6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q18" s="6">
         <v>5</v>
       </c>
       <c r="R18" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S18" s="6">
+        <v>5</v>
+      </c>
+      <c r="T18" s="6">
+        <v>5</v>
+      </c>
+      <c r="U18" s="6">
+        <v>3</v>
+      </c>
+      <c r="V18" s="6">
+        <v>8</v>
+      </c>
+      <c r="W18" s="6">
+        <v>14</v>
+      </c>
+      <c r="X18" s="6">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>19</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>20</v>
+      </c>
+      <c r="AC18" s="12">
+        <v>23</v>
+      </c>
+      <c r="AD18" s="14">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="6">
-        <v>6</v>
-      </c>
-      <c r="U18" s="6">
-        <v>6</v>
-      </c>
-      <c r="V18" s="6">
-        <v>7</v>
-      </c>
-      <c r="W18" s="6">
-        <v>15</v>
-      </c>
-      <c r="X18" s="6">
-        <v>20</v>
-      </c>
-      <c r="Y18" s="6">
-        <v>26</v>
-      </c>
-      <c r="Z18" s="6">
-        <v>48</v>
-      </c>
-      <c r="AA18" s="12">
-        <v>38</v>
-      </c>
-      <c r="AB18" s="12">
-        <v>25</v>
-      </c>
-      <c r="AC18" s="12">
-        <v>22</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>32</v>
-      </c>
-      <c r="AE18" s="14">
-        <f t="shared" si="0"/>
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B19" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
@@ -9145,7 +9227,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" s="6">
         <v>2</v>
@@ -9157,115 +9239,105 @@
         <v>2</v>
       </c>
       <c r="M19" s="6">
+        <v>3</v>
+      </c>
+      <c r="N19" s="6">
+        <v>3</v>
+      </c>
+      <c r="O19" s="6">
+        <v>3</v>
+      </c>
+      <c r="P19" s="6">
+        <v>4</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>3</v>
+      </c>
+      <c r="R19" s="6">
+        <v>4</v>
+      </c>
+      <c r="S19" s="6">
+        <v>3</v>
+      </c>
+      <c r="T19" s="6">
+        <v>3</v>
+      </c>
+      <c r="U19" s="6">
+        <v>3</v>
+      </c>
+      <c r="V19" s="6">
+        <v>4</v>
+      </c>
+      <c r="W19" s="6">
+        <v>5</v>
+      </c>
+      <c r="X19" s="6">
+        <v>6</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="12">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="12">
         <v>2</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="14">
+      <c r="AB19" s="12">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="12">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="14">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B20" s="7" t="s">
-        <v>30</v>
-      </c>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
-        <v>3</v>
-      </c>
-      <c r="M20" s="6">
-        <v>5</v>
-      </c>
-      <c r="N20" s="6">
-        <v>6</v>
-      </c>
-      <c r="O20" s="6">
-        <v>6</v>
-      </c>
-      <c r="P20" s="6">
-        <v>7</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>6</v>
-      </c>
-      <c r="R20" s="6">
-        <v>5</v>
-      </c>
-      <c r="S20" s="6">
-        <v>4</v>
-      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
       <c r="T20" s="6">
-        <v>5</v>
-      </c>
-      <c r="U20" s="6">
-        <v>5</v>
-      </c>
-      <c r="V20" s="6">
-        <v>3</v>
-      </c>
-      <c r="W20" s="6">
-        <v>8</v>
-      </c>
-      <c r="X20" s="6">
-        <v>14</v>
-      </c>
-      <c r="Y20" s="6">
-        <v>22</v>
-      </c>
-      <c r="Z20" s="6">
-        <v>19</v>
-      </c>
-      <c r="AA20" s="12">
-        <v>19</v>
-      </c>
-      <c r="AB20" s="12">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AC20" s="12">
-        <v>20</v>
-      </c>
-      <c r="AD20" s="12">
-        <v>23</v>
-      </c>
-      <c r="AE20" s="14">
-        <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -9273,78 +9345,52 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="6">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6">
+        <v>1</v>
+      </c>
+      <c r="W21" s="6">
+        <v>1</v>
+      </c>
+      <c r="X21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="12">
         <v>2</v>
       </c>
-      <c r="K21" s="6">
-        <v>2</v>
-      </c>
-      <c r="L21" s="6">
-        <v>2</v>
-      </c>
-      <c r="M21" s="6">
-        <v>2</v>
-      </c>
-      <c r="N21" s="6">
+      <c r="AA21" s="12">
         <v>3</v>
       </c>
-      <c r="O21" s="6">
-        <v>3</v>
-      </c>
-      <c r="P21" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>4</v>
-      </c>
-      <c r="R21" s="6">
-        <v>3</v>
-      </c>
-      <c r="S21" s="6">
-        <v>4</v>
-      </c>
-      <c r="T21" s="6">
-        <v>3</v>
-      </c>
-      <c r="U21" s="6">
-        <v>3</v>
-      </c>
-      <c r="V21" s="6">
-        <v>3</v>
-      </c>
-      <c r="W21" s="6">
-        <v>4</v>
-      </c>
-      <c r="X21" s="6">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="6">
-        <v>6</v>
-      </c>
-      <c r="Z21" s="6">
+      <c r="AB21" s="12">
         <v>8</v>
       </c>
-      <c r="AA21" s="12">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="12">
-        <v>2</v>
-      </c>
       <c r="AC21" s="12">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="12">
-        <v>4</v>
-      </c>
-      <c r="AE21" s="14">
+        <v>7</v>
+      </c>
+      <c r="AD21" s="14">
         <f t="shared" si="0"/>
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B22" s="7" t="s">
-        <v>31</v>
-      </c>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
@@ -9363,131 +9409,145 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-      <c r="U22" s="6">
-        <v>1</v>
-      </c>
+      <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="6"/>
-      <c r="Z22" s="6"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="14">
+      <c r="W22" s="6">
+        <v>1</v>
+      </c>
+      <c r="X22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>5</v>
+      </c>
+      <c r="AC22" s="12">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6">
-        <v>1</v>
-      </c>
-      <c r="X23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y23" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="6">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="12">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="12">
-        <v>3</v>
-      </c>
-      <c r="AC23" s="12">
-        <v>8</v>
-      </c>
-      <c r="AD23" s="12">
-        <v>7</v>
-      </c>
-      <c r="AE23" s="14">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35">
+        <v>4</v>
+      </c>
+      <c r="Y23" s="35">
+        <v>6</v>
+      </c>
+      <c r="Z23" s="36">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36">
+        <v>4</v>
+      </c>
+      <c r="AC23" s="36">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="37">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="6">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A24" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35">
+        <v>2</v>
+      </c>
+      <c r="S24" s="35">
+        <v>2</v>
+      </c>
+      <c r="T24" s="35">
+        <v>2</v>
+      </c>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35">
+        <v>2</v>
+      </c>
+      <c r="W24" s="35">
+        <v>1</v>
+      </c>
+      <c r="X24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="36">
+        <v>3</v>
+      </c>
+      <c r="AA24" s="36">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="36">
         <v>4</v>
       </c>
-      <c r="AA24" s="12">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="12">
-        <v>4</v>
-      </c>
-      <c r="AC24" s="12">
-        <v>5</v>
-      </c>
-      <c r="AD24" s="12">
+      <c r="AC24" s="36">
         <v>3</v>
       </c>
-      <c r="AE24" s="14">
+      <c r="AD24" s="37">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B25" s="34" t="s">
-        <v>51</v>
-      </c>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="35"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -9510,31 +9570,23 @@
       <c r="V25" s="35"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
-      <c r="Y25" s="35">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="35">
-        <v>6</v>
-      </c>
-      <c r="AA25" s="36">
-        <v>5</v>
-      </c>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="36"/>
       <c r="AB25" s="36"/>
       <c r="AC25" s="36">
-        <v>4</v>
-      </c>
-      <c r="AD25" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE25" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="14">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B26" s="34" t="s">
-        <v>33</v>
-      </c>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A26" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="35"/>
       <c r="C26" s="35"/>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -9551,49 +9603,41 @@
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
       <c r="R26" s="35"/>
-      <c r="S26" s="35">
-        <v>2</v>
-      </c>
-      <c r="T26" s="35">
-        <v>2</v>
-      </c>
-      <c r="U26" s="35">
-        <v>2</v>
-      </c>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
       <c r="V26" s="35"/>
       <c r="W26" s="35">
+        <v>1</v>
+      </c>
+      <c r="X26" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="35">
         <v>2</v>
       </c>
-      <c r="X26" s="35">
-        <v>1</v>
-      </c>
-      <c r="Y26" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="35">
-        <v>1</v>
+      <c r="Z26" s="36">
+        <v>2</v>
       </c>
       <c r="AA26" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB26" s="36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC26" s="36">
-        <v>4</v>
-      </c>
-      <c r="AD26" s="36">
-        <v>3</v>
-      </c>
-      <c r="AE26" s="37">
+        <v>7</v>
+      </c>
+      <c r="AD26" s="37">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B27" s="34" t="s">
-        <v>59</v>
-      </c>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A27" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="35"/>
       <c r="C27" s="35"/>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -9616,23 +9660,29 @@
       <c r="V27" s="35"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
+      <c r="Y27" s="35">
+        <v>4</v>
+      </c>
+      <c r="Z27" s="36">
+        <v>3</v>
+      </c>
       <c r="AA27" s="36"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="36"/>
-      <c r="AD27" s="36">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="14">
+      <c r="AB27" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B28" s="34" t="s">
-        <v>34</v>
-      </c>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A28" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="35"/>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -9650,40 +9700,46 @@
       <c r="Q28" s="35"/>
       <c r="R28" s="35"/>
       <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
+      <c r="T28" s="35">
+        <v>2</v>
+      </c>
+      <c r="U28" s="35">
+        <v>2</v>
+      </c>
+      <c r="V28" s="35">
+        <v>5</v>
+      </c>
+      <c r="W28" s="35">
+        <v>5</v>
+      </c>
       <c r="X28" s="35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y28" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="35">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="Z28" s="36">
+        <v>7</v>
       </c>
       <c r="AA28" s="36">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB28" s="36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AC28" s="36">
-        <v>6</v>
-      </c>
-      <c r="AD28" s="36">
-        <v>7</v>
-      </c>
-      <c r="AE28" s="37">
+        <v>8</v>
+      </c>
+      <c r="AD28" s="37">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B29" s="38" t="s">
-        <v>50</v>
-      </c>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A29" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="35"/>
       <c r="C29" s="35"/>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -9698,37 +9754,55 @@
       <c r="N29" s="35"/>
       <c r="O29" s="35"/>
       <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35">
+      <c r="Q29" s="35">
+        <v>1</v>
+      </c>
+      <c r="R29" s="35">
+        <v>1</v>
+      </c>
+      <c r="S29" s="35">
+        <v>1</v>
+      </c>
+      <c r="T29" s="35">
+        <v>2</v>
+      </c>
+      <c r="U29" s="35">
+        <v>2</v>
+      </c>
+      <c r="V29" s="35">
         <v>4</v>
       </c>
+      <c r="W29" s="35">
+        <v>2</v>
+      </c>
+      <c r="X29" s="35">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="35">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="36">
+        <v>1</v>
+      </c>
       <c r="AA29" s="36">
-        <v>3</v>
-      </c>
-      <c r="AB29" s="36"/>
+        <v>1</v>
+      </c>
+      <c r="AB29" s="36">
+        <v>1</v>
+      </c>
       <c r="AC29" s="36">
         <v>1</v>
       </c>
-      <c r="AD29" s="36">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="37">
+      <c r="AD29" s="37">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B30" s="34" t="s">
-        <v>14</v>
-      </c>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -9736,17 +9810,31 @@
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
+      <c r="J30" s="35">
+        <v>1</v>
+      </c>
+      <c r="K30" s="35">
+        <v>1</v>
+      </c>
+      <c r="L30" s="35">
+        <v>1</v>
+      </c>
+      <c r="M30" s="35">
+        <v>1</v>
+      </c>
+      <c r="N30" s="35">
+        <v>1</v>
+      </c>
       <c r="O30" s="35"/>
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
+      <c r="S30" s="35">
+        <v>1</v>
+      </c>
+      <c r="T30" s="35">
+        <v>1</v>
+      </c>
       <c r="U30" s="35">
         <v>2</v>
       </c>
@@ -9754,38 +9842,24 @@
         <v>2</v>
       </c>
       <c r="W30" s="35">
-        <v>5</v>
-      </c>
-      <c r="X30" s="35">
-        <v>5</v>
-      </c>
-      <c r="Y30" s="35">
-        <v>5</v>
-      </c>
-      <c r="Z30" s="35">
-        <v>5</v>
-      </c>
-      <c r="AA30" s="36">
-        <v>7</v>
-      </c>
-      <c r="AB30" s="36">
-        <v>7</v>
-      </c>
-      <c r="AC30" s="36">
-        <v>5</v>
-      </c>
-      <c r="AD30" s="36">
-        <v>8</v>
-      </c>
-      <c r="AE30" s="37">
+        <v>1</v>
+      </c>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="37">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B31" s="34" t="s">
-        <v>35</v>
-      </c>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A31" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -9801,54 +9875,34 @@
       <c r="O31" s="35"/>
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
-      <c r="R31" s="35">
-        <v>1</v>
-      </c>
-      <c r="S31" s="35">
-        <v>1</v>
-      </c>
-      <c r="T31" s="35">
-        <v>1</v>
-      </c>
-      <c r="U31" s="35">
-        <v>2</v>
-      </c>
-      <c r="V31" s="35">
-        <v>2</v>
-      </c>
-      <c r="W31" s="35">
-        <v>4</v>
-      </c>
-      <c r="X31" s="35">
-        <v>2</v>
-      </c>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
       <c r="Y31" s="35">
-        <v>2</v>
-      </c>
-      <c r="Z31" s="35">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Z31" s="36">
+        <v>1</v>
       </c>
       <c r="AA31" s="36">
         <v>1</v>
       </c>
-      <c r="AB31" s="36">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="36">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="36">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="37">
+      <c r="AB31" s="36"/>
+      <c r="AC31" s="36"/>
+      <c r="AD31" s="37">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B32" s="34" t="s">
-        <v>7</v>
-      </c>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A32" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -9857,55 +9911,65 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
-      <c r="K32" s="35">
-        <v>1</v>
-      </c>
-      <c r="L32" s="35">
-        <v>1</v>
-      </c>
-      <c r="M32" s="35">
-        <v>1</v>
-      </c>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
       <c r="N32" s="35">
         <v>1</v>
       </c>
       <c r="O32" s="35">
-        <v>1</v>
-      </c>
-      <c r="P32" s="35"/>
+        <v>3</v>
+      </c>
+      <c r="P32" s="35">
+        <v>5</v>
+      </c>
       <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
+      <c r="R32" s="35">
+        <v>1</v>
+      </c>
+      <c r="S32" s="35">
+        <v>1</v>
+      </c>
       <c r="T32" s="35">
         <v>1</v>
       </c>
       <c r="U32" s="35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V32" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W32" s="35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X32" s="35">
-        <v>1</v>
-      </c>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-      <c r="AC32" s="36"/>
-      <c r="AD32" s="36"/>
-      <c r="AE32" s="37">
+        <v>6</v>
+      </c>
+      <c r="Y32" s="35">
+        <v>8</v>
+      </c>
+      <c r="Z32" s="36">
+        <v>8</v>
+      </c>
+      <c r="AA32" s="36">
+        <v>8</v>
+      </c>
+      <c r="AB32" s="36">
+        <v>7</v>
+      </c>
+      <c r="AC32" s="36">
+        <v>6</v>
+      </c>
+      <c r="AD32" s="37">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B33" s="34" t="s">
-        <v>52</v>
-      </c>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A33" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="35"/>
       <c r="C33" s="35"/>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -9917,38 +9981,50 @@
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
       <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
+      <c r="N33" s="35">
+        <v>3</v>
+      </c>
+      <c r="O33" s="35">
+        <v>3</v>
+      </c>
+      <c r="P33" s="35">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="35">
+        <v>1</v>
+      </c>
+      <c r="R33" s="35">
+        <v>1</v>
+      </c>
+      <c r="S33" s="35">
+        <v>1</v>
+      </c>
+      <c r="T33" s="35">
+        <v>2</v>
+      </c>
+      <c r="U33" s="35">
+        <v>5</v>
+      </c>
+      <c r="V33" s="35">
+        <v>5</v>
+      </c>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
-      <c r="Z33" s="35">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="36">
-        <v>1</v>
-      </c>
-      <c r="AB33" s="36">
-        <v>1</v>
-      </c>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
       <c r="AC33" s="36"/>
-      <c r="AD33" s="36"/>
-      <c r="AE33" s="37">
+      <c r="AD33" s="37">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B34" s="34" t="s">
-        <v>36</v>
-      </c>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A34" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="35"/>
       <c r="C34" s="35"/>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -9961,61 +10037,33 @@
       <c r="L34" s="35"/>
       <c r="M34" s="35"/>
       <c r="N34" s="35"/>
-      <c r="O34" s="35">
-        <v>1</v>
-      </c>
-      <c r="P34" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="35">
-        <v>5</v>
-      </c>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
       <c r="R34" s="35"/>
-      <c r="S34" s="35">
-        <v>1</v>
-      </c>
-      <c r="T34" s="35">
-        <v>1</v>
-      </c>
-      <c r="U34" s="35">
-        <v>1</v>
-      </c>
-      <c r="V34" s="35">
-        <v>2</v>
-      </c>
-      <c r="W34" s="35">
-        <v>4</v>
-      </c>
-      <c r="X34" s="35">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="35">
-        <v>6</v>
-      </c>
-      <c r="Z34" s="35">
-        <v>8</v>
-      </c>
-      <c r="AA34" s="36">
-        <v>8</v>
-      </c>
-      <c r="AB34" s="36">
-        <v>8</v>
-      </c>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
       <c r="AC34" s="36">
-        <v>7</v>
-      </c>
-      <c r="AD34" s="36">
-        <v>6</v>
-      </c>
-      <c r="AE34" s="37">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="14">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B35" s="34" t="s">
-        <v>37</v>
-      </c>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A35" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -10028,49 +10076,47 @@
       <c r="L35" s="35"/>
       <c r="M35" s="35"/>
       <c r="N35" s="35"/>
-      <c r="O35" s="35">
-        <v>3</v>
-      </c>
-      <c r="P35" s="35">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="35">
-        <v>2</v>
-      </c>
-      <c r="R35" s="35">
-        <v>1</v>
-      </c>
-      <c r="S35" s="35">
-        <v>1</v>
-      </c>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
       <c r="T35" s="35">
         <v>1</v>
       </c>
-      <c r="U35" s="35">
-        <v>2</v>
-      </c>
-      <c r="V35" s="35">
-        <v>5</v>
-      </c>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
       <c r="W35" s="35">
-        <v>5</v>
-      </c>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-      <c r="AC35" s="36"/>
-      <c r="AD35" s="36"/>
-      <c r="AE35" s="37">
+        <v>1</v>
+      </c>
+      <c r="X35" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="36">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="36">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="37">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B36" s="34" t="s">
-        <v>60</v>
-      </c>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A36" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="35"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -10078,47 +10124,91 @@
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
+      <c r="J36" s="35">
+        <v>1</v>
+      </c>
+      <c r="K36" s="35">
+        <v>1</v>
+      </c>
+      <c r="L36" s="35">
+        <v>2</v>
+      </c>
+      <c r="M36" s="35">
+        <v>2</v>
+      </c>
+      <c r="N36" s="35">
+        <v>2</v>
+      </c>
       <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-      <c r="AC36" s="36"/>
-      <c r="AD36" s="36">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="14">
+      <c r="P36" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>1</v>
+      </c>
+      <c r="R36" s="35">
+        <v>3</v>
+      </c>
+      <c r="S36" s="35">
+        <v>3</v>
+      </c>
+      <c r="T36" s="35">
+        <v>3</v>
+      </c>
+      <c r="U36" s="35">
+        <v>3</v>
+      </c>
+      <c r="V36" s="35">
+        <v>6</v>
+      </c>
+      <c r="W36" s="35">
+        <v>4</v>
+      </c>
+      <c r="X36" s="35">
+        <v>3</v>
+      </c>
+      <c r="Y36" s="35">
+        <v>4</v>
+      </c>
+      <c r="Z36" s="36">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="36">
+        <v>5</v>
+      </c>
+      <c r="AB36" s="36">
+        <v>5</v>
+      </c>
+      <c r="AC36" s="36">
+        <v>6</v>
+      </c>
+      <c r="AD36" s="37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B37" s="34" t="s">
-        <v>16</v>
-      </c>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A37" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="F37" s="35">
+        <v>1</v>
+      </c>
+      <c r="G37" s="35">
+        <v>1</v>
+      </c>
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
+      <c r="J37" s="35">
+        <v>1</v>
+      </c>
+      <c r="K37" s="35">
+        <v>1</v>
+      </c>
       <c r="L37" s="35"/>
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
@@ -10128,41 +10218,25 @@
       <c r="R37" s="35"/>
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
-      <c r="U37" s="35">
-        <v>1</v>
-      </c>
+      <c r="U37" s="35"/>
       <c r="V37" s="35"/>
       <c r="W37" s="35"/>
-      <c r="X37" s="35">
-        <v>1</v>
-      </c>
-      <c r="Y37" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="35">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="36">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="36">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="36">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="36">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="37">
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="37">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B38" s="34" t="s">
-        <v>6</v>
-      </c>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A38" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -10171,92 +10245,62 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
       <c r="J38" s="35"/>
-      <c r="K38" s="35">
-        <v>1</v>
-      </c>
-      <c r="L38" s="35">
-        <v>1</v>
-      </c>
-      <c r="M38" s="35">
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35">
         <v>2</v>
       </c>
-      <c r="N38" s="35">
+      <c r="X38" s="35">
         <v>2</v>
       </c>
-      <c r="O38" s="35">
+      <c r="Y38" s="35">
         <v>2</v>
       </c>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35">
-        <v>1</v>
-      </c>
-      <c r="R38" s="35">
-        <v>1</v>
-      </c>
-      <c r="S38" s="35">
+      <c r="Z38" s="36">
         <v>3</v>
       </c>
-      <c r="T38" s="35">
-        <v>3</v>
-      </c>
-      <c r="U38" s="35">
-        <v>3</v>
-      </c>
-      <c r="V38" s="35">
-        <v>3</v>
-      </c>
-      <c r="W38" s="35">
-        <v>6</v>
-      </c>
-      <c r="X38" s="35">
+      <c r="AA38" s="36">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="36">
         <v>4</v>
       </c>
-      <c r="Y38" s="35">
-        <v>3</v>
-      </c>
-      <c r="Z38" s="35">
-        <v>4</v>
-      </c>
-      <c r="AA38" s="36">
-        <v>4</v>
-      </c>
-      <c r="AB38" s="36">
-        <v>5</v>
-      </c>
       <c r="AC38" s="36">
-        <v>5</v>
-      </c>
-      <c r="AD38" s="36">
-        <v>6</v>
-      </c>
-      <c r="AE38" s="37">
+        <v>7</v>
+      </c>
+      <c r="AD38" s="37">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B39" s="34" t="s">
-        <v>38</v>
-      </c>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A39" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
-      <c r="G39" s="35">
-        <v>1</v>
-      </c>
-      <c r="H39" s="35">
-        <v>1</v>
-      </c>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
       <c r="I39" s="35"/>
       <c r="J39" s="35"/>
-      <c r="K39" s="35">
-        <v>1</v>
-      </c>
-      <c r="L39" s="35">
-        <v>1</v>
-      </c>
-      <c r="M39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35">
+        <v>4</v>
+      </c>
       <c r="N39" s="35"/>
       <c r="O39" s="35"/>
       <c r="P39" s="35"/>
@@ -10269,20 +10313,22 @@
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
+      <c r="Z39" s="36">
+        <v>0</v>
+      </c>
       <c r="AA39" s="36"/>
       <c r="AB39" s="36"/>
       <c r="AC39" s="36"/>
-      <c r="AD39" s="36"/>
-      <c r="AE39" s="37">
+      <c r="AD39" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B40" s="34" t="s">
-        <v>39</v>
-      </c>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A40" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -10303,37 +10349,37 @@
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
       <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
+      <c r="W40" s="35">
+        <v>2</v>
+      </c>
       <c r="X40" s="35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y40" s="35">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="35">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="Z40" s="36">
+        <v>6</v>
       </c>
       <c r="AA40" s="36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB40" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC40" s="36">
-        <v>4</v>
-      </c>
-      <c r="AD40" s="36">
-        <v>7</v>
-      </c>
-      <c r="AE40" s="37">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="37">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B41" s="34" t="s">
-        <v>40</v>
-      </c>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A41" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -10345,9 +10391,7 @@
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
-      <c r="N41" s="35">
-        <v>4</v>
-      </c>
+      <c r="N41" s="35"/>
       <c r="O41" s="35"/>
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
@@ -10355,26 +10399,26 @@
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
+      <c r="V41" s="35">
+        <v>1</v>
+      </c>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="36">
-        <v>0</v>
-      </c>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
       <c r="AB41" s="36"/>
       <c r="AC41" s="36"/>
-      <c r="AD41" s="36"/>
-      <c r="AE41" s="37">
+      <c r="AD41" s="37">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B42" s="38" t="s">
-        <v>49</v>
-      </c>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A42" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -10390,42 +10434,34 @@
       <c r="O42" s="35"/>
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
+      <c r="R42" s="35">
+        <v>1</v>
+      </c>
+      <c r="S42" s="35">
+        <v>2</v>
+      </c>
+      <c r="T42" s="35">
+        <v>2</v>
+      </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
-      <c r="X42" s="35">
-        <v>2</v>
-      </c>
-      <c r="Y42" s="35">
-        <v>4</v>
-      </c>
-      <c r="Z42" s="35">
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="36"/>
+      <c r="AA42" s="36"/>
+      <c r="AB42" s="36"/>
+      <c r="AC42" s="36"/>
+      <c r="AD42" s="37">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="AA42" s="36">
-        <v>6</v>
-      </c>
-      <c r="AB42" s="36">
-        <v>6</v>
-      </c>
-      <c r="AC42" s="36">
-        <v>6</v>
-      </c>
-      <c r="AD42" s="36">
-        <v>5</v>
-      </c>
-      <c r="AE42" s="37">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B43" s="34" t="s">
-        <v>41</v>
-      </c>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A43" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -10446,25 +10482,27 @@
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
-      <c r="W43" s="35">
-        <v>1</v>
-      </c>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="36"/>
       <c r="AA43" s="36"/>
       <c r="AB43" s="36"/>
       <c r="AC43" s="36"/>
-      <c r="AD43" s="36"/>
-      <c r="AE43" s="37">
+      <c r="AD43" s="37">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B44" s="34" t="s">
-        <v>42</v>
-      </c>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A44" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -10481,33 +10519,39 @@
       <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
       <c r="R44" s="35"/>
-      <c r="S44" s="35">
-        <v>1</v>
-      </c>
-      <c r="T44" s="35">
-        <v>2</v>
-      </c>
-      <c r="U44" s="35">
-        <v>2</v>
-      </c>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
       <c r="V44" s="35"/>
       <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-      <c r="AC44" s="36"/>
-      <c r="AD44" s="36"/>
-      <c r="AE44" s="37">
+      <c r="X44" s="35">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="35">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="36">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="36">
+        <v>2</v>
+      </c>
+      <c r="AC44" s="36">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="37">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B45" s="34" t="s">
-        <v>43</v>
-      </c>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A45" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="35"/>
       <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -10515,12 +10559,24 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
+      <c r="J45" s="35">
+        <v>4</v>
+      </c>
+      <c r="K45" s="35">
+        <v>2</v>
+      </c>
+      <c r="L45" s="35">
+        <v>3</v>
+      </c>
+      <c r="M45" s="35">
+        <v>1</v>
+      </c>
+      <c r="N45" s="35">
+        <v>1</v>
+      </c>
+      <c r="O45" s="35">
+        <v>1</v>
+      </c>
       <c r="P45" s="35"/>
       <c r="Q45" s="35"/>
       <c r="R45" s="35"/>
@@ -10530,25 +10586,21 @@
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
       <c r="X45" s="35"/>
-      <c r="Y45" s="35">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="35">
-        <v>1</v>
-      </c>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="36"/>
       <c r="AA45" s="36"/>
       <c r="AB45" s="36"/>
       <c r="AC45" s="36"/>
-      <c r="AD45" s="36"/>
-      <c r="AE45" s="37">
+      <c r="AD45" s="37">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B46" s="34" t="s">
-        <v>44</v>
-      </c>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A46" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -10574,122 +10626,158 @@
       <c r="Y46" s="35">
         <v>1</v>
       </c>
-      <c r="Z46" s="35">
+      <c r="Z46" s="36">
         <v>1</v>
       </c>
       <c r="AA46" s="36">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="36">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="36">
-        <v>2</v>
-      </c>
-      <c r="AD46" s="36">
-        <v>2</v>
-      </c>
-      <c r="AE46" s="37">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B47" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35">
-        <v>4</v>
-      </c>
-      <c r="L47" s="35">
-        <v>2</v>
-      </c>
-      <c r="M47" s="35">
-        <v>3</v>
-      </c>
-      <c r="N47" s="35">
-        <v>1</v>
-      </c>
-      <c r="O47" s="35">
-        <v>1</v>
-      </c>
-      <c r="P47" s="35">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-      <c r="AC47" s="36"/>
-      <c r="AD47" s="36"/>
-      <c r="AE47" s="37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B48" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35">
-        <v>1</v>
-      </c>
-      <c r="AA48" s="36">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="36">
         <v>14</v>
       </c>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="36"/>
-      <c r="AE48" s="37">
+      <c r="AB46" s="36"/>
+      <c r="AC46" s="36"/>
+      <c r="AD46" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B49" s="7" t="s">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6">
+        <v>1</v>
+      </c>
+      <c r="U47" s="6">
+        <v>1</v>
+      </c>
+      <c r="V47" s="6">
+        <v>1</v>
+      </c>
+      <c r="W47" s="6">
+        <v>1</v>
+      </c>
+      <c r="X47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>11</v>
+      </c>
+      <c r="AB47" s="12">
+        <v>15</v>
+      </c>
+      <c r="AC47" s="12">
+        <v>10</v>
+      </c>
+      <c r="AD47" s="14">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6">
+        <v>2</v>
+      </c>
+      <c r="J48" s="6">
+        <v>2</v>
+      </c>
+      <c r="K48" s="6">
+        <v>3</v>
+      </c>
+      <c r="L48" s="6">
+        <v>4</v>
+      </c>
+      <c r="M48" s="6">
+        <v>3</v>
+      </c>
+      <c r="N48" s="6">
+        <v>2</v>
+      </c>
+      <c r="O48" s="6">
+        <v>1</v>
+      </c>
+      <c r="P48" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>3</v>
+      </c>
+      <c r="R48" s="6">
+        <v>5</v>
+      </c>
+      <c r="S48" s="6">
+        <v>6</v>
+      </c>
+      <c r="T48" s="6">
+        <v>4</v>
+      </c>
+      <c r="U48" s="6">
+        <v>5</v>
+      </c>
+      <c r="V48" s="6">
+        <v>5</v>
+      </c>
+      <c r="W48" s="6">
+        <v>8</v>
+      </c>
+      <c r="X48" s="6">
+        <v>10</v>
+      </c>
+      <c r="Y48" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>10</v>
+      </c>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12">
+        <v>14</v>
+      </c>
+      <c r="AC48" s="12">
+        <v>13</v>
+      </c>
+      <c r="AD48" s="14">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -10708,45 +10796,31 @@
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
-      <c r="U49" s="6">
-        <v>1</v>
-      </c>
-      <c r="V49" s="6">
-        <v>1</v>
-      </c>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
       <c r="W49" s="6">
         <v>1</v>
       </c>
       <c r="X49" s="6">
         <v>1</v>
       </c>
-      <c r="Y49" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="6">
-        <v>1</v>
-      </c>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="12"/>
       <c r="AA49" s="12">
-        <v>1</v>
-      </c>
-      <c r="AB49" s="12">
-        <v>11</v>
-      </c>
-      <c r="AC49" s="12">
-        <v>15</v>
-      </c>
-      <c r="AD49" s="12">
-        <v>10</v>
-      </c>
-      <c r="AE49" s="14">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="14">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B50" s="7" t="s">
-        <v>5</v>
-      </c>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -10754,540 +10828,453 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="6">
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6">
+        <v>1</v>
+      </c>
+      <c r="W50" s="6">
         <v>2</v>
       </c>
-      <c r="K50" s="6">
+      <c r="X50" s="6">
+        <v>3</v>
+      </c>
+      <c r="Y50" s="6">
         <v>2</v>
       </c>
-      <c r="L50" s="6">
+      <c r="Z50" s="12">
         <v>3</v>
       </c>
-      <c r="M50" s="6">
-        <v>4</v>
-      </c>
-      <c r="N50" s="6">
-        <v>3</v>
-      </c>
-      <c r="O50" s="6">
-        <v>2</v>
-      </c>
-      <c r="P50" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>2</v>
-      </c>
-      <c r="R50" s="6">
-        <v>3</v>
-      </c>
-      <c r="S50" s="6">
-        <v>5</v>
-      </c>
-      <c r="T50" s="6">
-        <v>6</v>
-      </c>
-      <c r="U50" s="6">
-        <v>4</v>
-      </c>
-      <c r="V50" s="6">
-        <v>5</v>
-      </c>
-      <c r="W50" s="6">
-        <v>5</v>
-      </c>
-      <c r="X50" s="6">
-        <v>8</v>
-      </c>
-      <c r="Y50" s="6">
-        <v>10</v>
-      </c>
-      <c r="Z50" s="6">
-        <v>10</v>
-      </c>
-      <c r="AA50" s="12">
-        <v>10</v>
-      </c>
-      <c r="AB50" s="12"/>
-      <c r="AC50" s="12">
-        <v>14</v>
-      </c>
-      <c r="AD50" s="12">
-        <v>13</v>
-      </c>
-      <c r="AE50" s="14">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B51" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6">
-        <v>1</v>
-      </c>
-      <c r="Y51" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="6"/>
-      <c r="AA51" s="12"/>
-      <c r="AB51" s="12">
-        <v>2</v>
-      </c>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B52" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6">
-        <v>1</v>
-      </c>
-      <c r="X52" s="6">
-        <v>2</v>
-      </c>
-      <c r="Y52" s="6">
-        <v>3</v>
-      </c>
-      <c r="Z52" s="6">
-        <v>2</v>
-      </c>
-      <c r="AA52" s="12">
-        <v>3</v>
-      </c>
-      <c r="AB52" s="12"/>
-      <c r="AC52" s="12">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="14">
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B53" s="42" t="s">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A51" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-      <c r="W53" s="16"/>
-      <c r="X53" s="16"/>
-      <c r="Y53" s="16"/>
-      <c r="Z53" s="16"/>
-      <c r="AA53" s="17"/>
-      <c r="AB53" s="17">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="17">
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="17">
         <v>2</v>
       </c>
-      <c r="AD53" s="17">
+      <c r="AC51" s="17">
         <v>3</v>
       </c>
-      <c r="AE53" s="14">
+      <c r="AD51" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:31" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
+    <row r="52" spans="1:31" ht="14" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16">
-        <v>1</v>
-      </c>
-      <c r="Y54" s="16"/>
-      <c r="Z54" s="16"/>
-      <c r="AA54" s="17"/>
-      <c r="AB54" s="17"/>
-      <c r="AC54" s="17"/>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="39">
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16">
+        <v>1</v>
+      </c>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="17"/>
+      <c r="AC52" s="17"/>
+      <c r="AD52" s="39">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="19">
-        <f t="shared" ref="C55:AD55" si="1">SUM(C4:C54)</f>
+    <row r="53" spans="1:31" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="19">
+        <f t="shared" ref="B53:AC53" si="1">SUM(B2:B52)</f>
         <v>2</v>
       </c>
-      <c r="D55" s="19">
+      <c r="C53" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E55" s="19">
+      <c r="D53" s="19">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F55" s="19">
+      <c r="E53" s="19">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="G55" s="19">
+      <c r="F53" s="19">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H55" s="19">
+      <c r="G53" s="19">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I55" s="19">
+      <c r="H53" s="19">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="J55" s="19">
+      <c r="I53" s="19">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="K55" s="19">
+      <c r="J53" s="19">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="L55" s="19">
+      <c r="K53" s="19">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="M55" s="19">
+      <c r="L53" s="19">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="N55" s="19">
+      <c r="M53" s="19">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="O55" s="19">
+      <c r="N53" s="19">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="P55" s="19">
+      <c r="O53" s="19">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="Q55" s="19">
+      <c r="P53" s="19">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="R55" s="19">
+      <c r="Q53" s="19">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="S55" s="19">
+      <c r="R53" s="19">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="T55" s="19">
+      <c r="S53" s="19">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="U55" s="19">
+      <c r="T53" s="19">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="V55" s="19">
+      <c r="U53" s="19">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="W55" s="19">
+      <c r="V53" s="19">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="X55" s="19">
+      <c r="W53" s="19">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="Y55" s="19">
+      <c r="X53" s="19">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="Z55" s="19">
+      <c r="Y53" s="19">
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="AA55" s="40">
+      <c r="Z53" s="40">
         <f t="shared" si="1"/>
         <v>191</v>
       </c>
-      <c r="AB55" s="40">
+      <c r="AA53" s="40">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="AC55" s="40">
+      <c r="AB53" s="40">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="AD55" s="40">
+      <c r="AC53" s="40">
         <f t="shared" si="1"/>
         <v>203</v>
       </c>
-      <c r="AE55" s="10">
-        <f>SUM(AE4:AE54)</f>
+      <c r="AD53" s="10">
+        <f>SUM(AD2:AD52)</f>
         <v>1952</v>
       </c>
     </row>
-    <row r="57" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B57" s="58" t="s">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B56" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="55"/>
+      <c r="K56" s="55"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="55"/>
+      <c r="P56" s="55"/>
+      <c r="Q56" s="55"/>
+      <c r="R56" s="55"/>
+      <c r="S56" s="55"/>
+      <c r="T56" s="55"/>
+      <c r="U56" s="55"/>
+      <c r="V56" s="55"/>
+      <c r="W56" s="55"/>
+      <c r="X56" s="55"/>
+      <c r="Y56" s="55"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="55"/>
+      <c r="AB56" s="55"/>
+      <c r="AC56" s="55"/>
+      <c r="AD56" s="55"/>
+      <c r="AE56" s="55"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B57" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
-      <c r="L57" s="58"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
-      <c r="Q57" s="58"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="58"/>
-      <c r="U57" s="58"/>
-      <c r="V57" s="58"/>
-      <c r="W57" s="58"/>
-      <c r="X57" s="58"/>
-      <c r="Y57" s="58"/>
-      <c r="Z57" s="58"/>
-      <c r="AA57" s="58"/>
-      <c r="AB57" s="58"/>
-      <c r="AC57" s="58"/>
-      <c r="AD57" s="58"/>
-      <c r="AE57" s="58"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
+      <c r="P57" s="54"/>
+      <c r="Q57" s="54"/>
+      <c r="R57" s="54"/>
+      <c r="S57" s="54"/>
+      <c r="T57" s="54"/>
+      <c r="U57" s="54"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="54"/>
+      <c r="X57" s="54"/>
+      <c r="Y57" s="54"/>
+      <c r="Z57" s="54"/>
+      <c r="AA57" s="54"/>
+      <c r="AB57" s="54"/>
+      <c r="AC57" s="54"/>
+      <c r="AD57" s="54"/>
+      <c r="AE57" s="54"/>
     </row>
-    <row r="58" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B58" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="57"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
-      <c r="Q58" s="57"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="57"/>
-      <c r="T58" s="57"/>
-      <c r="U58" s="57"/>
-      <c r="V58" s="57"/>
-      <c r="W58" s="57"/>
-      <c r="X58" s="57"/>
-      <c r="Y58" s="57"/>
-      <c r="Z58" s="57"/>
-      <c r="AA58" s="57"/>
-      <c r="AB58" s="57"/>
-      <c r="AC58" s="57"/>
-      <c r="AD58" s="57"/>
-      <c r="AE58" s="57"/>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B58" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="56"/>
+      <c r="K58" s="56"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="56"/>
+      <c r="P58" s="56"/>
+      <c r="Q58" s="56"/>
+      <c r="R58" s="56"/>
+      <c r="S58" s="56"/>
+      <c r="T58" s="56"/>
+      <c r="U58" s="56"/>
+      <c r="V58" s="56"/>
+      <c r="W58" s="56"/>
+      <c r="X58" s="56"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="56"/>
+      <c r="AB58" s="56"/>
+      <c r="AC58" s="56"/>
+      <c r="AD58" s="56"/>
+      <c r="AE58" s="56"/>
     </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B59" s="59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="59"/>
-      <c r="AD59" s="59"/>
-      <c r="AE59" s="59"/>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B59" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="57"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="57"/>
+      <c r="U59" s="57"/>
+      <c r="V59" s="57"/>
+      <c r="W59" s="57"/>
+      <c r="X59" s="57"/>
+      <c r="Y59" s="57"/>
+      <c r="Z59" s="57"/>
+      <c r="AA59" s="57"/>
+      <c r="AB59" s="57"/>
+      <c r="AC59" s="57"/>
+      <c r="AD59" s="57"/>
+      <c r="AE59" s="57"/>
     </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B60" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="60"/>
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="60"/>
-      <c r="U60" s="60"/>
-      <c r="V60" s="60"/>
-      <c r="W60" s="60"/>
-      <c r="X60" s="60"/>
-      <c r="Y60" s="60"/>
-      <c r="Z60" s="60"/>
-      <c r="AA60" s="60"/>
-      <c r="AB60" s="60"/>
-      <c r="AC60" s="60"/>
-      <c r="AD60" s="60"/>
-      <c r="AE60" s="60"/>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B60" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="57"/>
     </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B61" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="60"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="60"/>
-      <c r="L61" s="60"/>
-      <c r="M61" s="60"/>
-      <c r="N61" s="60"/>
-      <c r="O61" s="60"/>
-      <c r="P61" s="60"/>
-      <c r="Q61" s="60"/>
-      <c r="R61" s="60"/>
-      <c r="S61" s="60"/>
-      <c r="T61" s="60"/>
-      <c r="U61" s="60"/>
-      <c r="V61" s="60"/>
-      <c r="W61" s="60"/>
-      <c r="X61" s="60"/>
-      <c r="Y61" s="60"/>
-      <c r="Z61" s="60"/>
-      <c r="AA61" s="60"/>
-      <c r="AB61" s="60"/>
-      <c r="AC61" s="60"/>
-      <c r="AD61" s="60"/>
-      <c r="AE61" s="60"/>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B61" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
+      <c r="P61" s="54"/>
+      <c r="Q61" s="54"/>
+      <c r="R61" s="54"/>
+      <c r="S61" s="54"/>
+      <c r="T61" s="54"/>
+      <c r="U61" s="54"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="54"/>
+      <c r="X61" s="54"/>
+      <c r="Y61" s="54"/>
+      <c r="Z61" s="54"/>
+      <c r="AA61" s="54"/>
+      <c r="AB61" s="54"/>
+      <c r="AC61" s="54"/>
+      <c r="AD61" s="54"/>
+      <c r="AE61" s="54"/>
     </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.15">
       <c r="B62" s="57" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C62" s="57"/>
       <c r="D62" s="57"/>
@@ -11319,161 +11306,123 @@
       <c r="AD62" s="57"/>
       <c r="AE62" s="57"/>
     </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B63" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="60"/>
-      <c r="L63" s="60"/>
-      <c r="M63" s="60"/>
-      <c r="N63" s="60"/>
-      <c r="O63" s="60"/>
-      <c r="P63" s="60"/>
-      <c r="Q63" s="60"/>
-      <c r="R63" s="60"/>
-      <c r="S63" s="60"/>
-      <c r="T63" s="60"/>
-      <c r="U63" s="60"/>
-      <c r="V63" s="60"/>
-      <c r="W63" s="60"/>
-      <c r="X63" s="60"/>
-      <c r="Y63" s="60"/>
-      <c r="Z63" s="60"/>
-      <c r="AA63" s="60"/>
-      <c r="AB63" s="60"/>
-      <c r="AC63" s="60"/>
-      <c r="AD63" s="60"/>
-      <c r="AE63" s="60"/>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B63" s="5"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="48"/>
+      <c r="AC63" s="48"/>
+      <c r="AD63" s="25"/>
     </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B64" s="5"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="4"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="48"/>
-      <c r="AC64" s="48"/>
-      <c r="AD64" s="25"/>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="B64" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
+      <c r="R64" s="52"/>
+      <c r="S64" s="52"/>
+      <c r="T64" s="52"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="52"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="52"/>
+      <c r="AD64" s="52"/>
+      <c r="AE64" s="52"/>
     </row>
     <row r="65" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B65" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="C65" s="52"/>
-      <c r="D65" s="52"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="52"/>
-      <c r="O65" s="52"/>
-      <c r="P65" s="52"/>
-      <c r="Q65" s="52"/>
-      <c r="R65" s="52"/>
-      <c r="S65" s="52"/>
-      <c r="T65" s="52"/>
-      <c r="U65" s="52"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
-      <c r="AC65" s="52"/>
-      <c r="AD65" s="52"/>
-      <c r="AE65" s="52"/>
+      <c r="B65" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="53"/>
+      <c r="AA65" s="53"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="53"/>
+      <c r="AD65" s="53"/>
+      <c r="AE65" s="53"/>
     </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="B66" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="53"/>
-      <c r="T66" s="53"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="53"/>
-      <c r="W66" s="53"/>
-      <c r="X66" s="53"/>
-      <c r="Y66" s="53"/>
-      <c r="Z66" s="53"/>
-      <c r="AA66" s="53"/>
-      <c r="AB66" s="53"/>
-      <c r="AC66" s="53"/>
-      <c r="AD66" s="53"/>
-      <c r="AE66" s="53"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B102" s="3"/>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B101" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
+    <mergeCell ref="B64:AE64"/>
     <mergeCell ref="B65:AE65"/>
-    <mergeCell ref="B66:AE66"/>
-    <mergeCell ref="B2:AE2"/>
+    <mergeCell ref="B57:AE57"/>
+    <mergeCell ref="B56:AE56"/>
     <mergeCell ref="B58:AE58"/>
-    <mergeCell ref="B57:AE57"/>
     <mergeCell ref="B59:AE59"/>
     <mergeCell ref="B60:AE60"/>
     <mergeCell ref="B61:AE61"/>
     <mergeCell ref="B62:AE62"/>
-    <mergeCell ref="B63:AE63"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="C55:AD55" formulaRange="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -11548,60 +11497,60 @@
   <sheetData>
     <row r="1" spans="2:53" ht="14" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:53" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="62"/>
-      <c r="AH2" s="62"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="62"/>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="63"/>
-      <c r="BA2" s="64"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="59"/>
+      <c r="X2" s="59"/>
+      <c r="Y2" s="59"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="59"/>
+      <c r="AS2" s="59"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="60"/>
+      <c r="BA2" s="61"/>
     </row>
     <row r="3" spans="2:53" x14ac:dyDescent="0.15">
       <c r="B3" s="22" t="s">
